--- a/Reikningshald/vinnublöð/8.2 Tímaverkefni 2_afskriftir.xlsx
+++ b/Reikningshald/vinnublöð/8.2 Tímaverkefni 2_afskriftir.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ISRVKFSR04\Sameign$\Innri Mál\Accounting DPP\Accounting DPP (áður IFRS Help Desk)\Skipulagsmál\IFRS Review\Ársreikningar 2011\Starfsmenn\Unnar\Annað\2023_Reikningshald\Vikur 8 og 9\Fastafjármunir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donnac/Desktop/haust24/Reikningshald/vinnublöð/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E243B73-CFFA-49A4-8D51-AB7BDFD447F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B77972-1777-474D-973A-52A59BA7C86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Línuleg afsk" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>2.</t>
   </si>
@@ -123,6 +123,162 @@
   </si>
   <si>
     <t>Svör:</t>
+  </si>
+  <si>
+    <t>Kaupverð</t>
+  </si>
+  <si>
+    <t>viðbót</t>
+  </si>
+  <si>
+    <t>Kostnaðarverð:</t>
+  </si>
+  <si>
+    <t>niðurlagð</t>
+  </si>
+  <si>
+    <t>afskriftarstofn</t>
+  </si>
+  <si>
+    <t>afsk á ári</t>
+  </si>
+  <si>
+    <t>2010:</t>
+  </si>
+  <si>
+    <t>2011:</t>
+  </si>
+  <si>
+    <t>2009:</t>
+  </si>
+  <si>
+    <t>6 mánuðir liðinn</t>
+  </si>
+  <si>
+    <t>Kaupverð 2009:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Afskrift 2009:</t>
+    </r>
+  </si>
+  <si>
+    <t>Afskrift 2010:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bókfært virði 1.1.2011: </t>
+  </si>
+  <si>
+    <t>Kaupverð - afskrift 09 - afskrift 10'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Afksrift 2011(til 1.juli) : </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bókfært virði 1.7.2011: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Söluverð: </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Söluhagnaður:</t>
+    </r>
+  </si>
+  <si>
+    <t>Hærra en bókfært virði =&gt; söluhagnaður</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kredit í bókhaldið </t>
+  </si>
+  <si>
+    <t>niðurlagðs verð</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afskriftarhlutfall: </t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afskrift 09' </t>
+  </si>
+  <si>
+    <t>Afskrift 10'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 / nýtingartíma * 2 </t>
+  </si>
+  <si>
+    <t>kostnaðarverð</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BV 31.12.2010 / 1.1 2011</t>
+    </r>
+  </si>
+  <si>
+    <t>salan fer fram 1.7</t>
+  </si>
+  <si>
+    <t>Afskrift 11' (jan-jun)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BV 1.7.11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>söluverð</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">mismuniur </t>
   </si>
 </sst>
 </file>
@@ -214,12 +370,41 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -228,13 +413,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,15 +433,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -283,9 +477,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -323,9 +517,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,26 +552,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,26 +587,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -606,180 +766,312 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="185" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.5546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1"/>
-    <col min="9" max="9" width="2.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1"/>
+    <col min="9" max="9" width="2.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="11"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="11"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="3"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10">
+        <f>950000</f>
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="10">
+        <f>20000</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="10">
+        <f>+E12+E13</f>
+        <v>970000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="10">
+        <v>-70000</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1">
+        <f>E14+E15</f>
+        <v>900000</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1">
+        <f>E16/5</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1">
+        <f>E17*6/12</f>
+        <v>90000</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1">
+        <f>E17</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C21" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1">
+        <f>E14</f>
+        <v>970000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1">
+        <f>-E19</f>
+        <v>-90000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1">
+        <f>-E20</f>
+        <v>-180000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="1">
+        <f>E25+E26+E27</f>
+        <v>700000</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="str">
+        <f>B28</f>
+        <v xml:space="preserve">Bókfært virði 1.1.2011: </v>
+      </c>
+      <c r="E31" s="1">
+        <f>E28</f>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="1">
+        <f>E26</f>
+        <v>-90000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B33" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="1">
+        <f>E31+E32</f>
+        <v>610000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B34" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="1">
+        <f>650000</f>
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B35" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="1">
+        <f>E33-E34</f>
+        <v>-40000</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.15748031496062992"/>
@@ -795,233 +1087,352 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="12" max="12" width="3.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="3"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="3"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E19" s="6"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="10">
+        <f>950000</f>
+        <v>950000</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="15">
+        <f>20000</f>
+        <v>20000</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="15">
+        <f>+E15+E16</f>
+        <v>970000</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="10">
+        <v>-70000</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E19" s="5"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="5">
+        <f>1/5*2</f>
+        <v>0.4</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="5">
+        <f>-E20*E17*6/12</f>
+        <v>-194000</v>
+      </c>
+      <c r="G22" s="16">
+        <v>776000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="19">
+        <v>-310400</v>
+      </c>
+      <c r="G23" s="17">
+        <v>464600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="1">
+        <f>+E17</f>
+        <v>970000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="5">
+        <f>E22</f>
+        <v>-194000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="20">
+        <v>-310400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="1">
+        <f>SUM(E26:E28)</f>
+        <v>465600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="1">
+        <f>E29</f>
+        <v>465600</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="21">
+        <f>-E32*E20*6/12</f>
+        <v>-93120</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="16">
+        <f>SUM(E32:E33)</f>
+        <v>372480</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="1">
+        <f>650000</f>
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="1" t="e">
+        <f>SUM(E37E34:E35)</f>
+        <v>#NAME?</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.55118110236220474" top="0.55118110236220474" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.23622047244094491"/>
